--- a/DSA(Practice)/Problems/Striver A2Z/Striver A2Z.xlsx
+++ b/DSA(Practice)/Problems/Striver A2Z/Striver A2Z.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicks\Desktop\Striver A2Z\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Placement Preparation (ongoing)\DSA\DSA(Practice)\Problems\Striver A2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA8ED33-AD03-46DC-9AB2-4C930EEE66CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF2929E-F743-454A-AEB7-03BC6B5FA398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Topic</t>
   </si>
@@ -42,14 +42,44 @@
     <t>Approach</t>
   </si>
   <si>
-    <t>Patterns</t>
+    <t>Sorting I</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Sorting II</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Recursice Bubble Sort</t>
+  </si>
+  <si>
+    <t>Recursive Insertion Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Easy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +93,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -80,15 +136,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,120 +491,170 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FB2553BA-95C0-4202-BE36-83EAAE630B54}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C472B7A6-1FC0-4518-878E-6775F32D656F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{D931A1C7-9F26-4129-8232-65B73F8F9BA9}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{0D3BBE34-FAEA-4B7E-BE24-E8339DE7525E}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{ADCC3E44-D996-4C95-A660-45EFC327787A}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{7E9B1FC6-8D99-4543-8E31-2F9F24F5F129}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{376613D4-77F9-4158-86CD-4BE2579A1746}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DSA(Practice)/Problems/Striver A2Z/Striver A2Z.xlsx
+++ b/DSA(Practice)/Problems/Striver A2Z/Striver A2Z.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Placement Preparation (ongoing)\DSA\DSA(Practice)\Problems\Striver A2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF2929E-F743-454A-AEB7-03BC6B5FA398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0427D5BE-C960-4345-8908-7FA8795E26E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,10 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -537,14 +537,14 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -553,7 +553,7 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -562,21 +562,21 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
